--- a/САВР/Лабораторные/lab3/Lab3_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab3/Lab3_Var№5_Кендысь.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBCE6C5-2B70-4A82-8F64-181D1251B4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report, lab3" sheetId="2" r:id="rId1"/>
@@ -13,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'lab2 results'!$H$3:$H$39</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Год</t>
   </si>
@@ -1046,21 +1052,12 @@
     <t>Выборочные характеристики</t>
   </si>
   <si>
-    <t>Sx</t>
-  </si>
-  <si>
     <t>СТАНДОТКЛОНП для X</t>
   </si>
   <si>
-    <t>Sy</t>
-  </si>
-  <si>
     <t>СТАНДОТКЛОНП для Y</t>
   </si>
   <si>
-    <t>Sxy</t>
-  </si>
-  <si>
     <t>КОВАР</t>
   </si>
   <si>
@@ -1073,36 +1070,12 @@
     <t>Оценка значимости</t>
   </si>
   <si>
-    <t>rxy</t>
-  </si>
-  <si>
     <t>ПИРСОН</t>
   </si>
   <si>
-    <t>σr</t>
-  </si>
-  <si>
-    <t>tрасч</t>
-  </si>
-  <si>
     <t>СТЬЮДРАСПОБР</t>
   </si>
   <si>
-    <r>
-      <t>tкр(35;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0,001)</t>
-    </r>
-  </si>
-  <si>
     <t>θ̅</t>
   </si>
   <si>
@@ -1118,17 +1091,198 @@
     <t>γ</t>
   </si>
   <si>
-    <t>zγ</t>
-  </si>
-  <si>
-    <t>0.999</t>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>расч</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>кр</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(35;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0,02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Значение коэффициента Пирсона говорит о прямой средней зависимости. Нулевая гипотеза отвергается, значит величина r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> значима (уровень значимости = 0.02).</t>
+    </r>
+  </si>
+  <si>
+    <t>Длина доверительного интервала равна 0.52, т.е. коэффициент корреляции с вероятностью 0.98 попадает в этот интервал.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1175,6 +1329,23 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1348,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1376,50 +1547,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1449,12 +1581,50 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,8 +1644,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1508,7 +1688,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1517,10 +1697,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1786,13 +1968,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-123B-4807-8A96-0B1B8A22B2EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="105829504"/>
         <c:axId val="105831424"/>
       </c:scatterChart>
@@ -1802,6 +1992,7 @@
           <c:orientation val="minMax"/>
           <c:min val="6"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1854,7 +2045,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1865,6 +2056,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1909,6 +2101,7 @@
           <c:orientation val="minMax"/>
           <c:min val="6"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1964,7 +2157,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1975,6 +2168,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2023,6 +2217,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2057,580 +2252,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>501015</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2903,271 +2548,287 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="1">
         <f>'lab2 results'!E50</f>
         <v>0.55295210126788286</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2">
+      <c r="D2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="1">
         <f>'lab2 results'!F50</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14">
+      <c r="H2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25">
         <f>SUMPRODUCT('lab2 results'!C3:C39-'lab2 results'!E45, 'lab2 results'!D3:D39-'lab2 results'!F45)/'lab2 results'!L40</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="1">
+        <f>STDEVP('lab2 results'!C3:C39)</f>
+        <v>0.55295210126788263</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3">
-        <f>STDEVP('lab2 results'!C3:C39)</f>
-        <v>0.5529521012678742</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="1">
         <f>STDEVP('lab2 results'!D3:D39)</f>
-        <v>0.52639601864386976</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="14">
+        <v>0.5263960186438722</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="25">
         <f>COVAR('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6">
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="1">
         <f>J2/(C2*G2)</f>
         <v>0.59531626016584871</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="25">
         <f>SQRT((1-C6^2)/('lab2 results'!L40-2))</f>
         <v>0.13581484774523497</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="F6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="25">
         <f>C6/E6</f>
         <v>4.3832929171526107</v>
       </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="40">
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7">
+      <c r="H6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2.44</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="1">
         <f>PEARSON('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.59531626016584893</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="39">
-        <f>TINV(0.001, 35)</f>
-        <v>3.591146770286711</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="38">
+        <f>TINV(0.02, 35)</f>
+        <v>2.4377225471437423</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="1">
         <f>(EXP(2*E8)-1)/(EXP(2*E8)+1)</f>
-        <v>0.11934387628852446</v>
-      </c>
-      <c r="D8" s="13" t="s">
+        <v>0.2786971970352396</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="38">
+        <f>0.5*LN((1+C6)/(1-C6))-(I8/SQRT('lab2 results'!L40-3))</f>
+        <v>0.28626899913994547</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.98</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="39">
-        <f>0.5*LN((1+C6)/(1-C6))-(I8/SQRT('lab2 results'!L40-3))</f>
-        <v>0.11991537155171195</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9">
+      <c r="I8" s="25">
+        <v>2.33</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="1">
         <f>(EXP(2*E9)-1)/(EXP(2*E9)+1)</f>
-        <v>0.8487893033569589</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="39">
+        <v>0.79521231427662864</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="38">
         <f>0.5*LN((1+C6)/(1-C6))+(I8/SQRT('lab2 results'!L40-3))</f>
-        <v>1.25180603349227</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+        <v>1.0854524059040367</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3176,102 +2837,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E47" sqref="E47:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="20" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="18.75">
-      <c r="A2" s="20"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+    <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
@@ -3290,14 +2951,14 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1957</v>
       </c>
@@ -3377,7 +3038,7 @@
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1958</v>
       </c>
@@ -3454,7 +3115,7 @@
         <v>1.477583201229773E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1959</v>
       </c>
@@ -3531,7 +3192,7 @@
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1960</v>
       </c>
@@ -3608,7 +3269,7 @@
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1961</v>
       </c>
@@ -3685,7 +3346,7 @@
         <v>0.31413200045246936</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1962</v>
       </c>
@@ -3762,7 +3423,7 @@
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1963</v>
       </c>
@@ -3839,7 +3500,7 @@
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1964</v>
       </c>
@@ -3916,7 +3577,7 @@
         <v>1.2092608871916508</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1965</v>
       </c>
@@ -3993,7 +3654,7 @@
         <v>0.51869456338062681</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1966</v>
       </c>
@@ -4070,7 +3731,7 @@
         <v>9.061023471302565E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1967</v>
       </c>
@@ -4147,7 +3808,7 @@
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1968</v>
       </c>
@@ -4224,7 +3885,7 @@
         <v>3.822472882532511E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1969</v>
       </c>
@@ -4301,7 +3962,7 @@
         <v>4.8825180974311602E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1970</v>
       </c>
@@ -4378,7 +4039,7 @@
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1971</v>
       </c>
@@ -4455,7 +4116,7 @@
         <v>3.991396736993294E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1972</v>
       </c>
@@ -4532,7 +4193,7 @@
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1973</v>
       </c>
@@ -4609,7 +4270,7 @@
         <v>3.991396736993294E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1974</v>
       </c>
@@ -4672,7 +4333,7 @@
         <v>6.9535648218059154E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1975</v>
       </c>
@@ -4735,7 +4396,7 @@
         <v>0.31869282606990673</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1976</v>
       </c>
@@ -4798,7 +4459,7 @@
         <v>0.52533376935065967</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1977</v>
       </c>
@@ -4854,7 +4515,7 @@
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1978</v>
       </c>
@@ -4910,7 +4571,7 @@
         <v>0.51869456338062681</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1979</v>
       </c>
@@ -4966,7 +4627,7 @@
         <v>0.81915060744514812</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1980</v>
       </c>
@@ -5022,7 +4683,7 @@
         <v>0.31869282606990673</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1981</v>
       </c>
@@ -5078,7 +4739,7 @@
         <v>0.31869282606990673</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1982</v>
       </c>
@@ -5134,7 +4795,7 @@
         <v>9.2408894219867296E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1983</v>
       </c>
@@ -5190,7 +4851,7 @@
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1984</v>
       </c>
@@ -5246,7 +4907,7 @@
         <v>4.1501040785717258E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1985</v>
       </c>
@@ -5302,7 +4963,7 @@
         <v>3.822472882532511E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1986</v>
       </c>
@@ -5358,7 +5019,7 @@
         <v>0.80988166977116494</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1987</v>
       </c>
@@ -5414,7 +5075,7 @@
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1988</v>
       </c>
@@ -5470,7 +5131,7 @@
         <v>3.991396736993294E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1989</v>
       </c>
@@ -5526,7 +5187,7 @@
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1990</v>
       </c>
@@ -5582,7 +5243,7 @@
         <v>1.5239352435569908E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1991</v>
       </c>
@@ -5638,7 +5299,7 @@
         <v>6.9535648218059154E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1992</v>
       </c>
@@ -5694,7 +5355,7 @@
         <v>0.17999534517045251</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1993</v>
       </c>
@@ -5750,7 +5411,7 @@
         <v>4.1501040785717258E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
@@ -5803,12 +5464,12 @@
         <v>6.3315645312222379</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -5816,10 +5477,10 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:22" ht="18">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+    <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
@@ -5829,43 +5490,43 @@
       <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-    </row>
-    <row r="45" spans="1:22" ht="14.45" customHeight="1">
-      <c r="A45" s="18" t="s">
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+    </row>
+    <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="33">
         <f>SUMPRODUCT(K3:K19,H3:H19)/K40</f>
         <v>8.1810810810810803</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="33">
         <f>SUMPRODUCT(L3:L19,I3:I19)/L40</f>
         <v>7.9729729729729746</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="33">
         <f>SUMPRODUCT(M3:M22,J3:J22)/M40</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
       <c r="L45" s="1"/>
       <c r="M45" s="6" t="s">
         <v>26</v>
@@ -5877,17 +5538,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
       <c r="L46" s="9" t="s">
         <v>39</v>
       </c>
@@ -5901,30 +5562,30 @@
         <v>8.0513513513513519</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="14.45" customHeight="1">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="33">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K40</f>
         <v>0.43937180423666905</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="33">
         <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/L40</f>
         <v>0.30575602629656695</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="33">
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M40</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
@@ -5938,17 +5599,17 @@
         <v>8.7732669773978686E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
       <c r="L48" s="9" t="s">
         <v>41</v>
       </c>
@@ -5962,12 +5623,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="11">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K40-1)</f>
         <v>0.45157657657657652</v>
@@ -5980,10 +5641,10 @@
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M40-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="23"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
       <c r="L49" s="9" t="s">
         <v>42</v>
       </c>
@@ -5997,12 +5658,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="10">
         <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
@@ -6015,10 +5676,10 @@
         <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
       <c r="L50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6032,30 +5693,30 @@
         <v>0.53365699638418473</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A51" s="18" t="s">
+    <row r="51" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="33">
         <f>D50/D45</f>
         <v>8.1022454366902683E-2</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="33">
         <f>E50/E45</f>
         <v>6.935331439631072E-2</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="33">
         <f>F50/F45</f>
         <v>6.5379834474062676E-2</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="29"/>
       <c r="L51" s="9" t="s">
         <v>44</v>
       </c>
@@ -6069,17 +5730,17 @@
         <v>0.2847897897897898</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="23"/>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29"/>
       <c r="L52" s="9" t="s">
         <v>45</v>
       </c>
@@ -6093,17 +5754,17 @@
         <v>-0.70511515342786346</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="23"/>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
       <c r="L53" s="9" t="s">
         <v>46</v>
       </c>
@@ -6117,30 +5778,30 @@
         <v>0.14849878333758657</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A54" s="18" t="s">
+    <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="33">
         <f>Q40/(K40*D50^3)</f>
         <v>-1.2619066541331863</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="33">
         <f>R40/(L40*E50^3)</f>
         <v>-0.3056496884394217</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="33">
         <f>S40/(M40*F50^3)</f>
         <v>0.14240945598119886</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="23"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="29"/>
       <c r="L54" s="9" t="s">
         <v>47</v>
       </c>
@@ -6154,17 +5815,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="23"/>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29"/>
       <c r="L55" s="9" t="s">
         <v>48</v>
       </c>
@@ -6178,17 +5839,17 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="23"/>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
       <c r="L56" s="9" t="s">
         <v>49</v>
       </c>
@@ -6202,17 +5863,17 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
       <c r="L57" s="9" t="s">
         <v>50</v>
       </c>
@@ -6226,30 +5887,30 @@
         <v>297.90000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A58" s="18" t="s">
+    <row r="58" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19">
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="33">
         <f>T40/(K40*D47^2)-3</f>
         <v>1.4708680584490494</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="33">
         <f>U40/(L40*E47^2)-3</f>
         <v>0.80811175067843388</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="33">
         <f>V40/(M40*F47^2)-3</f>
         <v>-0.77126245071575994</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="23"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
       <c r="L58" s="9" t="s">
         <v>51</v>
       </c>
@@ -6263,219 +5924,219 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="60" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="23"/>
-      <c r="L60" s="28" t="s">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="29"/>
+      <c r="L60" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="30"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="17"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="33"/>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="29"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="20"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="23"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="33"/>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="20"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="23"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="33"/>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="29"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="20"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="23"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="33"/>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="29"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="20"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="18" t="s">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="19">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="33">
         <f>H12</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="33">
         <f>I11</f>
         <v>7.9</v>
       </c>
-      <c r="F65" s="19" t="str">
+      <c r="F65" s="33" t="str">
         <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
         <v>7.9, 8.1, 8.5</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G65" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="23"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="33"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="29"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="20"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
     </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="23"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="36"/>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="23"/>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="29"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="23"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="29"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="23"/>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="23"/>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="29"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="23"/>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="18" t="s">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="29"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="10">
         <f>E21</f>
         <v>8.3000000000000007</v>
@@ -6488,79 +6149,120 @@
         <f>G21</f>
         <v>8</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G71" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="6:7">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="6:7">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="6:7">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="6:7">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="6:7">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="6:7">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="6:7">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="H3:H39"/>
-  <sortState ref="G3:G39">
+  <autoFilter ref="H3:H39" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G39">
     <sortCondition ref="G3"/>
   </sortState>
   <mergeCells count="57">
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="A65:C70"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="A51:C53"/>
+    <mergeCell ref="A54:C57"/>
+    <mergeCell ref="A58:C64"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="L60:O66"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A43:C43"/>
@@ -6577,47 +6279,6 @@
     <mergeCell ref="A47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="A51:C53"/>
-    <mergeCell ref="A54:C57"/>
-    <mergeCell ref="A58:C64"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="A65:C70"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/САВР/Лабораторные/lab3/Lab3_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab3/Lab3_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBCE6C5-2B70-4A82-8F64-181D1251B4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2880C0-F920-446C-8856-9C36DE9863B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>Год</t>
   </si>
@@ -1247,8 +1247,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Значение коэффициента Пирсона говорит о прямой средней зависимости. Нулевая гипотеза отвергается, значит величина r</t>
+    <t>Длина доверительного интервала равна 0.52, т.е. коэффициент корреляции с вероятностью 0.98 попадает в этот интервал.</t>
+  </si>
+  <si>
+    <r>
+      <t>Значение r</t>
     </r>
     <r>
       <rPr>
@@ -1271,11 +1274,34 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> значима (уровень значимости = 0.02).</t>
-    </r>
-  </si>
-  <si>
-    <t>Длина доверительного интервала равна 0.52, т.е. коэффициент корреляции с вероятностью 0.98 попадает в этот интервал.</t>
+      <t xml:space="preserve"> говорит о средней прямой зависимости. Нулевая гипотеза отвергается, т.е. величина r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> значима (уровень значимости 0.02).</t>
+    </r>
+  </si>
+  <si>
+    <t>Из графика корреляционного поля видно, что данные приблизительно сконцентрированы посередине и форма зависимости близка к линейной. Парный линейный коэффициент корреляции Пирсона указал на возможную среднюю зависимость, гипотеза о незначимости коэффициента корреляции была отклонена, и доверительный интервал показывает, что есть высокая вероятность слабой-средней зависимости. Из всего этого следует, что есть смысл в построении линейной регрессии и исследовании её свойств.</t>
   </si>
 </sst>
 </file>
@@ -1550,8 +1576,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1580,50 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2257,14 +2283,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>501015</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>432435</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2556,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2568,141 +2594,141 @@
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1">
         <f>'lab2 results'!E50</f>
         <v>0.55295210126788286</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="1">
         <f>'lab2 results'!F50</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16">
         <f>SUMPRODUCT('lab2 results'!C3:C39-'lab2 results'!E45, 'lab2 results'!D3:D39-'lab2 results'!F45)/'lab2 results'!L40</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1">
         <f>STDEVP('lab2 results'!C3:C39)</f>
         <v>0.55295210126788263</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="1">
         <f>STDEVP('lab2 results'!D3:D39)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="25">
+      <c r="I3" s="18"/>
+      <c r="J3" s="16">
         <f>COVAR('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1">
         <f>J2/(C2*G2)</f>
         <v>0.59531626016584871</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="16">
         <f>SQRT((1-C6^2)/('lab2 results'!L40-2))</f>
         <v>0.13581484774523497</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <f>C6/E6</f>
         <v>4.3832929171526107</v>
       </c>
@@ -2712,96 +2738,154 @@
       <c r="I6" s="13">
         <v>2.44</v>
       </c>
-      <c r="J6" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="J6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1">
         <f>PEARSON('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.59531626016584893</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="14">
         <f>TINV(0.02, 35)</f>
         <v>2.4377225471437423</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1">
         <f>(EXP(2*E8)-1)/(EXP(2*E8)+1)</f>
         <v>0.2786971970352396</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="14">
         <f>0.5*LN((1+C6)/(1-C6))-(I8/SQRT('lab2 results'!L40-3))</f>
         <v>0.28626899913994547</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <v>0.98</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="22">
         <v>2.33</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="J8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1">
         <f>(EXP(2*E9)-1)/(EXP(2*E9)+1)</f>
         <v>0.79521231427662864</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="14">
         <f>0.5*LN((1+C6)/(1-C6))+(I8/SQRT('lab2 results'!L40-3))</f>
         <v>1.0854524059040367</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="J8:L9"/>
+    <mergeCell ref="A10:L12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="J6:L7"/>
     <mergeCell ref="J5:L5"/>
@@ -2814,21 +2898,8 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2863,76 +2934,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="26" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
@@ -2951,12 +3022,12 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -5470,17 +5541,17 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
       <c r="E43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
@@ -5490,43 +5561,43 @@
       <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="26" t="s">
+      <c r="M44" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
     </row>
     <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="33">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22">
         <f>SUMPRODUCT(K3:K19,H3:H19)/K40</f>
         <v>8.1810810810810803</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="22">
         <f>SUMPRODUCT(L3:L19,I3:I19)/L40</f>
         <v>7.9729729729729746</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="22">
         <f>SUMPRODUCT(M3:M22,J3:J22)/M40</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="29"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="25"/>
       <c r="L45" s="1"/>
       <c r="M45" s="6" t="s">
         <v>26</v>
@@ -5539,16 +5610,16 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="29"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="25"/>
       <c r="L46" s="9" t="s">
         <v>39</v>
       </c>
@@ -5563,29 +5634,29 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="33">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K40</f>
         <v>0.43937180423666905</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="22">
         <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/L40</f>
         <v>0.30575602629656695</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="22">
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M40</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="25"/>
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
@@ -5600,16 +5671,16 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="25"/>
       <c r="L48" s="9" t="s">
         <v>41</v>
       </c>
@@ -5624,11 +5695,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="11">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K40-1)</f>
         <v>0.45157657657657652</v>
@@ -5641,10 +5712,10 @@
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M40-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
       <c r="L49" s="9" t="s">
         <v>42</v>
       </c>
@@ -5659,11 +5730,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="10">
         <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
@@ -5676,10 +5747,10 @@
         <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="25"/>
       <c r="L50" s="9" t="s">
         <v>43</v>
       </c>
@@ -5694,29 +5765,29 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="33">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22">
         <f>D50/D45</f>
         <v>8.1022454366902683E-2</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="22">
         <f>E50/E45</f>
         <v>6.935331439631072E-2</v>
       </c>
-      <c r="F51" s="33">
+      <c r="F51" s="22">
         <f>F50/F45</f>
         <v>6.5379834474062676E-2</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="29"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
       <c r="L51" s="9" t="s">
         <v>44</v>
       </c>
@@ -5731,16 +5802,16 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="29"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="25"/>
       <c r="L52" s="9" t="s">
         <v>45</v>
       </c>
@@ -5755,16 +5826,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="25"/>
       <c r="L53" s="9" t="s">
         <v>46</v>
       </c>
@@ -5779,29 +5850,29 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="33">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22">
         <f>Q40/(K40*D50^3)</f>
         <v>-1.2619066541331863</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="22">
         <f>R40/(L40*E50^3)</f>
         <v>-0.3056496884394217</v>
       </c>
-      <c r="F54" s="33">
+      <c r="F54" s="22">
         <f>S40/(M40*F50^3)</f>
         <v>0.14240945598119886</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="29"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="25"/>
       <c r="L54" s="9" t="s">
         <v>47</v>
       </c>
@@ -5816,16 +5887,16 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="29"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="25"/>
       <c r="L55" s="9" t="s">
         <v>48</v>
       </c>
@@ -5840,16 +5911,16 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="25"/>
       <c r="L56" s="9" t="s">
         <v>49</v>
       </c>
@@ -5864,16 +5935,16 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="29"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
       <c r="L57" s="9" t="s">
         <v>50</v>
       </c>
@@ -5888,29 +5959,29 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="33">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22">
         <f>T40/(K40*D47^2)-3</f>
         <v>1.4708680584490494</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="22">
         <f>U40/(L40*E47^2)-3</f>
         <v>0.80811175067843388</v>
       </c>
-      <c r="F58" s="33">
+      <c r="F58" s="22">
         <f>V40/(M40*F47^2)-3</f>
         <v>-0.77126245071575994</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="25"/>
       <c r="L58" s="9" t="s">
         <v>51</v>
       </c>
@@ -5925,218 +5996,218 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="29"/>
-      <c r="L60" s="15" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="25"/>
+      <c r="L60" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="17"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="32"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="29"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="25"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="35"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="20"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="25"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="35"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="29"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="25"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="35"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="29"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="25"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="35"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="33">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22">
         <f>H12</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="22">
         <f>I11</f>
         <v>7.9</v>
       </c>
-      <c r="F65" s="33" t="str">
+      <c r="F65" s="22" t="str">
         <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
         <v>7.9, 8.1, 8.5</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="G65" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="29"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="20"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="25"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="35"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="29"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="23"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="25"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="38"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="29"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="25"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="25"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="29"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="25"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="29"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="25"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="10">
         <f>E21</f>
         <v>8.3000000000000007</v>
@@ -6149,12 +6220,12 @@
         <f>G21</f>
         <v>8</v>
       </c>
-      <c r="G71" s="27" t="s">
+      <c r="G71" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="25"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F73" s="8"/>
@@ -6222,31 +6293,22 @@
     <sortCondition ref="G3"/>
   </sortState>
   <mergeCells count="57">
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="A65:C70"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="L60:O66"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="G47:J50"/>
+    <mergeCell ref="G51:J53"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G54:J57"/>
+    <mergeCell ref="G58:J64"/>
+    <mergeCell ref="G65:J70"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="G71:J71"/>
     <mergeCell ref="A51:C53"/>
     <mergeCell ref="A54:C57"/>
@@ -6263,22 +6325,31 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="L60:O66"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="G45:J46"/>
-    <mergeCell ref="G47:J50"/>
-    <mergeCell ref="G51:J53"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G54:J57"/>
-    <mergeCell ref="G58:J64"/>
-    <mergeCell ref="G65:J70"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="A65:C70"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/САВР/Лабораторные/lab3/Lab3_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab3/Lab3_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2880C0-F920-446C-8856-9C36DE9863B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D9D19-B97E-44FE-B879-B065B0B7DC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,46 +1581,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1649,8 +1610,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2585,150 +2585,153 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="23.88671875" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1">
         <f>'lab2 results'!E50</f>
         <v>0.55295210126788286</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="1">
         <f>'lab2 results'!F50</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27">
         <f>SUMPRODUCT('lab2 results'!C3:C39-'lab2 results'!E45, 'lab2 results'!D3:D39-'lab2 results'!F45)/'lab2 results'!L40</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="1">
         <f>STDEVP('lab2 results'!C3:C39)</f>
         <v>0.55295210126788263</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="1">
         <f>STDEVP('lab2 results'!D3:D39)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16">
+      <c r="I3" s="29"/>
+      <c r="J3" s="27">
         <f>COVAR('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="18" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1">
         <f>J2/(C2*G2)</f>
         <v>0.59531626016584871</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="27">
         <f>SQRT((1-C6^2)/('lab2 results'!L40-2))</f>
         <v>0.13581484774523497</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="30">
         <f>C6/E6</f>
         <v>4.3832929171526107</v>
       </c>
@@ -2738,25 +2741,25 @@
       <c r="I6" s="13">
         <v>2.44</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="1">
         <f>PEARSON('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.59531626016584893</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="2" t="s">
         <v>69</v>
       </c>
@@ -2764,15 +2767,15 @@
         <f>TINV(0.02, 35)</f>
         <v>2.4377225471437423</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="1">
         <f>(EXP(2*E8)-1)/(EXP(2*E8)+1)</f>
         <v>0.2786971970352396</v>
@@ -2784,29 +2787,29 @@
         <f>0.5*LN((1+C6)/(1-C6))-(I8/SQRT('lab2 results'!L40-3))</f>
         <v>0.28626899913994547</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="30">
         <v>0.98</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="30">
         <v>2.33</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="1">
         <f>(EXP(2*E9)-1)/(EXP(2*E9)+1)</f>
         <v>0.79521231427662864</v>
@@ -2818,60 +2821,72 @@
         <f>0.5*LN((1+C6)/(1-C6))+(I8/SQRT('lab2 results'!L40-3))</f>
         <v>1.0854524059040367</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="J8:L9"/>
     <mergeCell ref="A10:L12"/>
     <mergeCell ref="A8:B8"/>
@@ -2888,18 +2903,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="J6:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2934,76 +2937,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="18" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
@@ -3022,12 +3025,12 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -5541,17 +5544,17 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
       <c r="E43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
@@ -5561,43 +5564,43 @@
       <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="18" t="s">
+      <c r="M44" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
     </row>
     <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="30">
         <f>SUMPRODUCT(K3:K19,H3:H19)/K40</f>
         <v>8.1810810810810803</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="30">
         <f>SUMPRODUCT(L3:L19,I3:I19)/L40</f>
         <v>7.9729729729729746</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="30">
         <f>SUMPRODUCT(M3:M22,J3:J22)/M40</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="25"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
       <c r="L45" s="1"/>
       <c r="M45" s="6" t="s">
         <v>26</v>
@@ -5610,16 +5613,16 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
       <c r="L46" s="9" t="s">
         <v>39</v>
       </c>
@@ -5634,29 +5637,29 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="30">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K40</f>
         <v>0.43937180423666905</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="30">
         <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/L40</f>
         <v>0.30575602629656695</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="30">
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M40</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="25"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35"/>
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
@@ -5671,16 +5674,16 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="35"/>
       <c r="L48" s="9" t="s">
         <v>41</v>
       </c>
@@ -5695,11 +5698,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="11">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K40-1)</f>
         <v>0.45157657657657652</v>
@@ -5712,10 +5715,10 @@
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M40-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35"/>
       <c r="L49" s="9" t="s">
         <v>42</v>
       </c>
@@ -5730,11 +5733,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="10">
         <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
@@ -5747,10 +5750,10 @@
         <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
       <c r="L50" s="9" t="s">
         <v>43</v>
       </c>
@@ -5765,29 +5768,29 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="30">
         <f>D50/D45</f>
         <v>8.1022454366902683E-2</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="30">
         <f>E50/E45</f>
         <v>6.935331439631072E-2</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="30">
         <f>F50/F45</f>
         <v>6.5379834474062676E-2</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="35"/>
       <c r="L51" s="9" t="s">
         <v>44</v>
       </c>
@@ -5802,16 +5805,16 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35"/>
       <c r="L52" s="9" t="s">
         <v>45</v>
       </c>
@@ -5826,16 +5829,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="25"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
       <c r="L53" s="9" t="s">
         <v>46</v>
       </c>
@@ -5850,29 +5853,29 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22">
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="30">
         <f>Q40/(K40*D50^3)</f>
         <v>-1.2619066541331863</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="30">
         <f>R40/(L40*E50^3)</f>
         <v>-0.3056496884394217</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="30">
         <f>S40/(M40*F50^3)</f>
         <v>0.14240945598119886</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="25"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="35"/>
       <c r="L54" s="9" t="s">
         <v>47</v>
       </c>
@@ -5887,16 +5890,16 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="25"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="35"/>
       <c r="L55" s="9" t="s">
         <v>48</v>
       </c>
@@ -5911,16 +5914,16 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="25"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="35"/>
       <c r="L56" s="9" t="s">
         <v>49</v>
       </c>
@@ -5935,16 +5938,16 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="25"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="35"/>
       <c r="L57" s="9" t="s">
         <v>50</v>
       </c>
@@ -5959,29 +5962,29 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22">
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="30">
         <f>T40/(K40*D47^2)-3</f>
         <v>1.4708680584490494</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="30">
         <f>U40/(L40*E47^2)-3</f>
         <v>0.80811175067843388</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="30">
         <f>V40/(M40*F47^2)-3</f>
         <v>-0.77126245071575994</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="25"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="35"/>
       <c r="L58" s="9" t="s">
         <v>51</v>
       </c>
@@ -5996,218 +5999,218 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
     </row>
     <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="25"/>
-      <c r="L60" s="30" t="s">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="35"/>
+      <c r="L60" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="32"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="19"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="25"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="35"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="35"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="22"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="25"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="35"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="22"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="25"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="35"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="35"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="22"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="25"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="35"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="35"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="22"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="30">
         <f>H12</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="30">
         <f>I11</f>
         <v>7.9</v>
       </c>
-      <c r="F65" s="22" t="str">
+      <c r="F65" s="30" t="str">
         <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
         <v>7.9, 8.1, 8.5</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="G65" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="25"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="35"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="35"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="22"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="25"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="38"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="35"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="25"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="25"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="35"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="25"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="25"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="35"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="25"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="35"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="10">
         <f>E21</f>
         <v>8.3000000000000007</v>
@@ -6220,12 +6223,12 @@
         <f>G21</f>
         <v>8</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="25"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F73" s="8"/>
@@ -6293,6 +6296,47 @@
     <sortCondition ref="G3"/>
   </sortState>
   <mergeCells count="57">
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="A65:C70"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="A51:C53"/>
+    <mergeCell ref="A54:C57"/>
+    <mergeCell ref="A58:C64"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="L60:O66"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A43:C43"/>
@@ -6309,47 +6353,6 @@
     <mergeCell ref="A47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="A51:C53"/>
-    <mergeCell ref="A54:C57"/>
-    <mergeCell ref="A58:C64"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="A65:C70"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
